--- a/Output/AllModels_MainModels_12000.xlsx
+++ b/Output/AllModels_MainModels_12000.xlsx
@@ -317,7 +317,7 @@
     <t xml:space="preserve">[0.77,   3.81]</t>
   </si>
   <si>
-    <t xml:space="preserve">Own Actionplan</t>
+    <t xml:space="preserve">Own action plan</t>
   </si>
   <si>
     <t xml:space="preserve">10.50***</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">[0.45,   1.63]</t>
   </si>
   <si>
-    <t xml:space="preserve">Partner Actionplan</t>
+    <t xml:space="preserve">Partner action plan</t>
   </si>
   <si>
     <t xml:space="preserve">1.17</t>

--- a/Output/AllModels_MainModels_12000.xlsx
+++ b/Output/AllModels_MainModels_12000.xlsx
@@ -1,793 +1,800 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E4AF0-E71C-46EE-B72A-875A8E4DF56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Zero Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI is_reactance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.43***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own action plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner action plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily wear time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean wear time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="256">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>Hurdle Component</t>
+  </si>
+  <si>
+    <t>Non-Zero Component</t>
+  </si>
+  <si>
+    <t>exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t>exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t>95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t>Est. mood_gauss</t>
+  </si>
+  <si>
+    <t>95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t>OR is_reactance</t>
+  </si>
+  <si>
+    <t>95% CI is_reactance</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>0.21***</t>
+  </si>
+  <si>
+    <t>[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t>35.17***</t>
+  </si>
+  <si>
+    <t>[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t>110.43***</t>
+  </si>
+  <si>
+    <t>[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t>3.67***</t>
+  </si>
+  <si>
+    <t>[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t>0.37**</t>
+  </si>
+  <si>
+    <t>[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t>Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.58***</t>
+  </si>
+  <si>
+    <t>[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.34***</t>
+  </si>
+  <si>
+    <t>[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t>[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t>0.90*</t>
+  </si>
+  <si>
+    <t>[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>2.02*</t>
+  </si>
+  <si>
+    <t>[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>1.55*</t>
+  </si>
+  <si>
+    <t>[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t>Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t>1.33*</t>
+  </si>
+  <si>
+    <t>[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t>Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.34**</t>
+  </si>
+  <si>
+    <t>[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t>0.07*</t>
+  </si>
+  <si>
+    <t>[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t>[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.25***</t>
+  </si>
+  <si>
+    <t>[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t>Own action plan</t>
+  </si>
+  <si>
+    <t>10.50***</t>
+  </si>
+  <si>
+    <t>[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t>[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t>1.07**</t>
+  </si>
+  <si>
+    <t>[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t>0.11**</t>
+  </si>
+  <si>
+    <t>[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t>Partner action plan</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t>[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t>Daily wear time</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t>[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t>[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t>34.42**</t>
+  </si>
+  <si>
+    <t>[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t>[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t>Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t>[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t>Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t>1.75*</t>
+  </si>
+  <si>
+    <t>[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t>0.06*</t>
+  </si>
+  <si>
+    <t>[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t>Mean wear time</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t>[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t>sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t>sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -801,16 +808,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,20 +837,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -856,20 +871,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1151,62 +1183,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1228,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1298,43 +1345,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1361,15 +1388,15 @@
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="10" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1403,8 +1430,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1438,8 +1465,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1473,8 +1500,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1508,8 +1535,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1543,8 +1570,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1578,8 +1605,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1613,8 +1640,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1648,8 +1675,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1667,43 +1694,23 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1737,8 +1744,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1772,8 +1779,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1807,8 +1814,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1842,8 +1849,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1877,8 +1884,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1912,8 +1919,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1931,43 +1938,23 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2001,8 +1988,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2036,8 +2023,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2071,8 +2058,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2106,8 +2093,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2141,8 +2128,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2176,8 +2163,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2211,43 +2198,23 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2273,38 +2240,34 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="6">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModels_MainModels_12000.xlsx
+++ b/Output/AllModels_MainModels_12000.xlsx
@@ -1,800 +1,793 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pascku\Repos\02TimeAndTiesControl\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E4AF0-E71C-46EE-B72A-875A8E4DF56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-22510" yWindow="760" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="256">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>Hurdle Component</t>
-  </si>
-  <si>
-    <t>Non-Zero Component</t>
-  </si>
-  <si>
-    <t>exp(Est.)_hu pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_hu pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.)_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>95% CI_nonzero pa_sub</t>
-  </si>
-  <si>
-    <t>exp(Est.) pa_obj_log</t>
-  </si>
-  <si>
-    <t>95% CI pa_obj_log</t>
-  </si>
-  <si>
-    <t>Est. mood_gauss</t>
-  </si>
-  <si>
-    <t>95% CI mood_gauss</t>
-  </si>
-  <si>
-    <t>OR is_reactance</t>
-  </si>
-  <si>
-    <t>95% CI is_reactance</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>0.21***</t>
-  </si>
-  <si>
-    <t>[ 0.15,  0.30]</t>
-  </si>
-  <si>
-    <t>35.17***</t>
-  </si>
-  <si>
-    <t>[29.76, 41.52]</t>
-  </si>
-  <si>
-    <t>110.43***</t>
-  </si>
-  <si>
-    <t>[99.31, 123.00]</t>
-  </si>
-  <si>
-    <t>3.67***</t>
-  </si>
-  <si>
-    <t>[ 3.45, 3.87]</t>
-  </si>
-  <si>
-    <t>0.37**</t>
-  </si>
-  <si>
-    <t>[0.19,   0.72]</t>
-  </si>
-  <si>
-    <t>Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.58***</t>
-  </si>
-  <si>
-    <t>[ 1.37,  1.84]</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.06]</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.04, 0.04]</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[0.68,   1.02]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.34***</t>
-  </si>
-  <si>
-    <t>[ 1.18,  1.53]</t>
-  </si>
-  <si>
-    <t>[ 0.99,  1.08]</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[ 0.98,   1.05]</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>[-0.03, 0.07]</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[0.83,   1.57]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[ 0.69,  1.36]</t>
-  </si>
-  <si>
-    <t>0.90*</t>
-  </si>
-  <si>
-    <t>[ 0.80,  0.99]</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[ 0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t>2.02*</t>
-  </si>
-  <si>
-    <t>[1.04,   4.77]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>1.55*</t>
-  </si>
-  <si>
-    <t>[ 1.04,  2.67]</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t>[ 0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.10]</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>[0.55,   4.90]</t>
-  </si>
-  <si>
-    <t>Daily individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[ 0.76,  1.37]</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.93,  1.06]</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.07]</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>[-0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>1.33*</t>
-  </si>
-  <si>
-    <t>[1.03,   1.77]</t>
-  </si>
-  <si>
-    <t>Daily partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.34**</t>
-  </si>
-  <si>
-    <t>[ 1.07,  1.72]</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.02]</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.96,   1.05]</t>
-  </si>
-  <si>
-    <t>0.07*</t>
-  </si>
-  <si>
-    <t>[ 0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>[0.58,   1.35]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>[ 0.60,  1.09]</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.11]</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.91,   1.04]</t>
-  </si>
-  <si>
-    <t>0.25***</t>
-  </si>
-  <si>
-    <t>[ 0.14, 0.36]</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>[0.77,   3.81]</t>
-  </si>
-  <si>
-    <t>Own action plan</t>
-  </si>
-  <si>
-    <t>10.50***</t>
-  </si>
-  <si>
-    <t>[ 8.57, 12.90]</t>
-  </si>
-  <si>
-    <t>[ 1.21,  1.47]</t>
-  </si>
-  <si>
-    <t>1.07**</t>
-  </si>
-  <si>
-    <t>[ 1.02,   1.12]</t>
-  </si>
-  <si>
-    <t>0.11**</t>
-  </si>
-  <si>
-    <t>[ 0.04, 0.19]</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[0.45,   1.63]</t>
-  </si>
-  <si>
-    <t>Partner action plan</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.43]</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>[ 0.98,  1.17]</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.10]</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>[-0.11, 0.04]</t>
-  </si>
-  <si>
-    <t>[0.48,   1.56]</t>
-  </si>
-  <si>
-    <t>Daily wear time</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[ 1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>[ 0.65,  3.02]</t>
-  </si>
-  <si>
-    <t>[ 0.70,  1.30]</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>[ 0.83,   1.47]</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>[-0.20, 0.90]</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>[0.47,   7.74]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced persuasion</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>[ 0.61,  2.80]</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[ 0.66,  1.22]</t>
-  </si>
-  <si>
-    <t>[ 0.74,   1.32]</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[-0.33, 0.77]</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>[0.48,  10.26]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.17***</t>
-  </si>
-  <si>
-    <t>[ 0.05,  0.49]</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>[ 0.36,  1.63]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.30]</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>[-0.83, 0.24]</t>
-  </si>
-  <si>
-    <t>34.42**</t>
-  </si>
-  <si>
-    <t>[3.20, 583.15]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pressure</t>
-  </si>
-  <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>[ 0.08,  0.72]</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>[ 0.26,  1.20]</t>
-  </si>
-  <si>
-    <t>[ 0.73,   1.28]</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>[-0.85, 0.22]</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>[0.09,  20.83]</t>
-  </si>
-  <si>
-    <t>Mean individual's experienced pushing</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>[ 0.45,  4.62]</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>[ 0.87,  2.62]</t>
-  </si>
-  <si>
-    <t>[ 0.64,   1.45]</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[-0.59, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.05,   5.49]</t>
-  </si>
-  <si>
-    <t>Mean partner's experienced pushing</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>[ 0.81,  8.39]</t>
-  </si>
-  <si>
-    <t>1.75*</t>
-  </si>
-  <si>
-    <t>[ 1.00,  3.04]</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>[ 0.81,   1.83]</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>[-0.43, 1.11]</t>
-  </si>
-  <si>
-    <t>0.06*</t>
-  </si>
-  <si>
-    <t>[0.00,   0.67]</t>
-  </si>
-  <si>
-    <t>Mean wear time</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>[0.62, 1.08]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t>[0.23, 0.39]</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[0.78, 1.86]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>[0.04, 0.41]</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>[0.07, 0.16]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.02, 0.55]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced persuasion)</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[0.01, 0.35]</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>[0.04, 0.13]</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.01, 0.13]</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>[0.12, 1.03]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>[0.01, 0.77]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[0.12, 2.46]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pressure)</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>[0.02, 1.21]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[0.05, 2.91]</t>
-  </si>
-  <si>
-    <t>sd(Daily individual's experienced pushing)</t>
-  </si>
-  <si>
-    <t>[0.20, 0.93]</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.16]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[0.02, 0.64]</t>
-  </si>
-  <si>
-    <t>sd(Daily partner's experienced pushing)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.57]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.17]</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>[0.01, 1.03]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Zero Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_hu pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI_nonzero pa_sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.) pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI pa_obj_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI mood_gauss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI is_reactance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15,  0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[29.76, 41.52]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.43***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[99.31, 123.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.45, 3.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.19,   0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.37,  1.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.68,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.18,  1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.99,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.03, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.83,   1.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.69,  1.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.04,   4.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  2.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.55,   4.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.76,  1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.06, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   1.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.07,  1.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.58,   1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.60,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.14, 0.36]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.77,   3.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own action plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 8.57, 12.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.21,  1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,   1.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.04, 0.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.45,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner action plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.11, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,   1.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily wear time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.65,  3.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.70,  1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.83,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.20, 0.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.47,   7.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced persuasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  2.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.66,  1.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,   1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.33, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48,  10.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05,  0.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.36,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.83, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3.20, 583.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.08,  0.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.26,  1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.73,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.85, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.09,  20.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean individual's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45,  4.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  2.62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.64,   1.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.59, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,   5.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean partner's experienced pushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  8.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.00,  3.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,   1.83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.43, 1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00,   0.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean wear time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.62, 1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.78, 1.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.07, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced persuasion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 2.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 2.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily individual's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20, 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily partner's experienced pushing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -808,16 +801,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -837,28 +830,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,37 +856,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1183,77 +1151,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1275,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1345,23 +1298,43 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1388,15 +1361,15 @@
       <c r="I6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1430,8 +1403,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1465,8 +1438,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1500,8 +1473,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1535,8 +1508,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1570,8 +1543,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1605,8 +1578,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1640,8 +1613,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1675,8 +1648,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -1694,23 +1667,43 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+    <row r="16">
+      <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1744,8 +1737,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1779,8 +1772,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1814,8 +1807,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1849,8 +1842,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1884,8 +1877,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1919,8 +1912,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="1"/>
@@ -1938,23 +1931,43 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1988,8 +2001,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2023,8 +2036,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2058,8 +2071,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2093,8 +2106,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2128,8 +2141,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2163,8 +2176,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2198,23 +2211,43 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
+    <row r="32">
+      <c r="A32" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
+      <c r="B32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B33" s="4"/>
@@ -2240,34 +2273,38 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
+    <row r="34">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>